--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -72,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -142,9 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="B2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,4 +1001,546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7">
+        <v>0.94257142857142795</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
+        <v>0.94361523226887001</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10">
+        <v>0.95633986928104497</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
+        <v>0.93416261353025998</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.96187747035573101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.97096638655462097</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.91426334776334695</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.97072782429709603</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.96950980392156805</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.94776190476190403</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.97359924320605395</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.96399209486166004</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.98330252100840299</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.91653441003441005</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.98354906331686498</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.89833333333333298</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.99081699346405205</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.95157142857142796</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.97725460096319205</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.97557983193277298</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.97521671792544595</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.97241830065359403</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.97946577227382103</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.97557983193277298</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.97521671792544595</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.97241830065359403</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.97946577227382103</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sum.xlsx
+++ b/sum.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
     <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -67,6 +67,9 @@
   <si>
     <t>SMOTE boarder Line</t>
   </si>
+  <si>
+    <t>SMOTE &gt; BoardLineSMOTE</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -146,8 +155,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1005,18 +1016,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1036,47 +1049,62 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>0.94257142857142795</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="6">
+        <v>0.92411764705882304</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(D4&gt;E4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.94361523226887001</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="6">
+        <v>0.92714605701682495</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" ref="F5:F7" si="0">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1084,39 +1112,51 @@
       <c r="D6" s="10">
         <v>0.95633986928104497</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="6">
+        <v>0.96235294117646997</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>0.93416261353025998</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="6">
+        <v>0.89822802438359695</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1165,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1137,95 +1177,150 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6">
         <v>0.96187747035573101</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>0.97096638655462097</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(D4&gt;E4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="6">
         <v>0.91426334776334695</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>0.97072782429709603</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="6">
+        <v>0.98049247729394795</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" ref="F14:F16" si="1">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>0.89600000000000002</v>
       </c>
       <c r="D15" s="10">
         <v>0.96950980392156805</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="6">
+        <v>0.99352941176470599</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6">
         <v>0.94776190476190403</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>0.97359924320605395</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="6">
+        <v>0.96861197110423103</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1328,15 @@
         <v>13</v>
       </c>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1246,95 +1348,178 @@
         <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="6">
         <v>0.96399209486166004</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>0.98330252100840299</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="6">
+        <v>0.98588235294117599</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>IF(D4&gt;E4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="6">
         <v>0.91653441003441005</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>0.98354906331686498</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="6">
+        <v>0.98630880230880202</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" ref="F23:F24" si="2">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>0.89833333333333298</v>
       </c>
       <c r="D24" s="10">
         <v>0.99081699346405205</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="6">
+        <v>0.995294117647058</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="6">
         <v>0.95157142857142796</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>0.97725460096319205</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="6">
+        <v>0.97821637426900498</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f>IF(D7&gt;E7, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,8 +1527,15 @@
         <v>14</v>
       </c>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1355,95 +1547,178 @@
         <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="6">
         <v>0.96462450592885296</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>0.97557983193277298</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="6">
+        <v>0.98823529411764699</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f>IF(D4&gt;E4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="6">
         <v>0.92010878010877994</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>0.97521671792544595</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="6">
+        <v>0.98815004031915799</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" ref="F32:F34" si="3">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>0.90533333333333299</v>
       </c>
       <c r="D33" s="10">
         <v>0.97241830065359403</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="6">
+        <v>0.98647058823529399</v>
+      </c>
+      <c r="F33" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>False</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="6">
         <v>0.94973809523809505</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>0.97946577227382103</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="6">
+        <v>0.99058135534915703</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>True</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1726,15 @@
         <v>15</v>
       </c>
       <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1464,81 +1746,152 @@
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="6">
         <v>0.96462450592885296</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>0.97557983193277298</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="6">
+        <v>0.97941176470588198</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f>IF(D4&gt;E4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="6">
         <v>0.92010878010877994</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>0.97521671792544595</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="6">
+        <v>0.97996518443577196</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f t="shared" ref="F41:F43" si="4">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="6">
         <v>0.90533333333333299</v>
       </c>
       <c r="D42" s="10">
         <v>0.97241830065359403</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="6">
+        <v>0.99058823529411699</v>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>False</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="6">
         <v>0.94973809523809505</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>0.97946577227382103</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="6">
+        <v>0.97055882352941103</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>True</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sum.xlsx
+++ b/sum.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>SMOTE &gt; BoardLineSMOTE</t>
+  </si>
+  <si>
+    <t>BrdSMOTE &gt; GAN</t>
   </si>
 </sst>
 </file>
@@ -1016,20 +1019,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S44"/>
+  <dimension ref="B2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1055,16 +1060,19 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1079,12 +1087,18 @@
         <f>IF(D4&gt;E4, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="6">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>IF(E4&gt;G4, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1099,12 +1113,18 @@
         <f t="shared" ref="F5:F7" si="0">IF(D5&gt;E5, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="6">
+        <v>0.92601774418696103</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" ref="H5:H7" si="1">IF(E5&gt;G5, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1119,12 +1139,18 @@
         <f t="shared" si="0"/>
         <v>False</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="6">
+        <v>0.94562091503267898</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1139,24 +1165,30 @@
         <f t="shared" si="0"/>
         <v>True</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="6">
+        <v>0.91039842308534202</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1197,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1183,16 +1215,19 @@
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1209,12 +1244,18 @@
         <f>IF(D4&gt;E4, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="6">
+        <v>0.98914285714285699</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>IF(E13&gt;G13, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1228,15 +1269,21 @@
         <v>0.98049247729394795</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f t="shared" ref="F14:F16" si="1">IF(D5&gt;E5, "True", "False")</f>
-        <v>True</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <f t="shared" ref="F14:F16" si="2">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.98918991040314497</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" ref="H14:H16" si="3">IF(E14&gt;G14, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,15 +1297,21 @@
         <v>0.99352941176470599</v>
       </c>
       <c r="F15" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>False</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="6">
+        <v>0.99199346405228706</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>True</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,55 +1325,61 @@
         <v>0.96861197110423103</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>True</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.98691950464396205</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>False</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="M16" s="12"/>
+      <c r="K16" s="1"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,15 +1387,15 @@
         <v>13</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1354,23 +1413,26 @@
         <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1387,19 +1449,25 @@
         <f>IF(D4&gt;E4, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="6">
+        <v>0.99057142857142799</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f>IF(E22&gt;G22, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="1"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1413,22 +1481,28 @@
         <v>0.98630880230880202</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f t="shared" ref="F23:F24" si="2">IF(D5&gt;E5, "True", "False")</f>
-        <v>True</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <f t="shared" ref="F23:F24" si="4">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.99060167510902797</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="shared" ref="H23:H25" si="5">IF(E23&gt;G23, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="1"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1442,22 +1516,28 @@
         <v>0.995294117647058</v>
       </c>
       <c r="F24" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>False</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="6">
+        <v>0.99362745098039196</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>True</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="1"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1474,52 +1554,58 @@
         <f>IF(D7&gt;E7, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="6">
+        <v>0.988030615755074</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>False</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="M25" s="12"/>
+      <c r="K25" s="1"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,15 +1613,15 @@
         <v>14</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-    </row>
-    <row r="30" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1553,23 +1639,26 @@
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="12"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1586,19 +1675,25 @@
         <f>IF(D4&gt;E4, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f>IF(E31&gt;G31, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="M31" s="12"/>
+      <c r="K31" s="1"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1612,22 +1707,28 @@
         <v>0.98815004031915799</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f t="shared" ref="F32:F34" si="3">IF(D5&gt;E5, "True", "False")</f>
-        <v>True</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+        <f t="shared" ref="F32:F34" si="6">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.99003417091652302</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" ref="H32:H34" si="7">IF(E32&gt;G32, "True", "False")</f>
+        <v>False</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="M32" s="12"/>
+      <c r="K32" s="1"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1641,22 +1742,28 @@
         <v>0.98647058823529399</v>
       </c>
       <c r="F33" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>False</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="6">
+        <v>0.99084967320261397</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>False</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="M33" s="12"/>
+      <c r="K33" s="1"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1670,55 +1777,61 @@
         <v>0.99058135534915703</v>
       </c>
       <c r="F34" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>True</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+        <f t="shared" si="6"/>
+        <v>True</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.98969728242174004</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>True</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="M34" s="12"/>
+      <c r="K34" s="1"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="12"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="12"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="12"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,15 +1839,15 @@
         <v>15</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
-    </row>
-    <row r="39" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="T38" s="12"/>
+    </row>
+    <row r="39" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1752,23 +1865,26 @@
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="12"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1785,19 +1901,25 @@
         <f>IF(D4&gt;E4, "True", "False")</f>
         <v>True</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="6">
+        <v>0.97314285714285698</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>IF(E40&gt;G40, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="M40" s="12"/>
+      <c r="K40" s="1"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="12"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1811,22 +1933,28 @@
         <v>0.97996518443577196</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f t="shared" ref="F41:F43" si="4">IF(D5&gt;E5, "True", "False")</f>
-        <v>True</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+        <f t="shared" ref="F41:F43" si="8">IF(D5&gt;E5, "True", "False")</f>
+        <v>True</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.97361098269428603</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f t="shared" ref="H41:H43" si="9">IF(E41&gt;G41, "True", "False")</f>
+        <v>True</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="M41" s="12"/>
+      <c r="K41" s="1"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="12"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1840,22 +1968,28 @@
         <v>0.99058823529411699</v>
       </c>
       <c r="F42" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>False</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="6">
+        <v>0.98790849673202596</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>True</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="M42" s="12"/>
+      <c r="K42" s="1"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="12"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1869,29 +2003,35 @@
         <v>0.97055882352941103</v>
       </c>
       <c r="F43" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>True</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <f t="shared" si="8"/>
+        <v>True</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.96121180401985296</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>True</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="M43" s="12"/>
+      <c r="K43" s="1"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M44" s="12"/>
+      <c r="T43" s="12"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
@@ -472,14 +472,14 @@
       <selection activeCell="I43" sqref="B2:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -527,7 +527,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +543,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -575,19 +575,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -620,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,19 +684,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,19 +793,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,19 +902,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1022,19 +1022,19 @@
   <dimension ref="B2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1176,19 +1176,19 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="N17" s="12"/>
@@ -1357,7 +1357,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="N18" s="12"/>
@@ -1368,7 +1368,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="N19" s="12"/>
@@ -1379,7 +1379,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1432,7 +1432,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="N26" s="12"/>
@@ -1583,7 +1583,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="N27" s="12"/>
@@ -1594,7 +1594,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="N28" s="12"/>
@@ -1605,7 +1605,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1658,7 +1658,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="N35" s="12"/>
@@ -1809,7 +1809,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="N36" s="12"/>
@@ -1820,7 +1820,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="N37" s="12"/>
@@ -1831,7 +1831,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1884,7 +1884,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>

--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
     <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Undersampling" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -72,6 +73,24 @@
   </si>
   <si>
     <t>BrdSMOTE &gt; GAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -144,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,6 +181,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -469,17 +489,17 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="B2:I43"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -511,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -527,7 +547,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +563,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +579,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -575,19 +595,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +616,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -620,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +656,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -652,7 +672,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -668,7 +688,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,19 +704,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +725,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -729,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +765,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +781,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,7 +797,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,19 +813,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +834,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -838,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,7 +874,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +890,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +906,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,19 +922,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +943,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -947,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +983,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -979,7 +999,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1015,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1022,19 +1042,20 @@
   <dimension ref="B2:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1072,11 +1093,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>0.95231225296442601</v>
+      </c>
       <c r="D4" s="9">
         <v>0.94257142857142795</v>
       </c>
@@ -1098,11 +1121,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>0.89795981795981705</v>
+      </c>
       <c r="D5" s="9">
         <v>0.94361523226887001</v>
       </c>
@@ -1124,11 +1149,13 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>0.89099999999999902</v>
+      </c>
       <c r="D6" s="10">
         <v>0.95633986928104497</v>
       </c>
@@ -1150,11 +1177,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>0.92469047619047595</v>
+      </c>
       <c r="D7" s="9">
         <v>0.93416261353025998</v>
       </c>
@@ -1176,19 +1205,19 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1226,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1227,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1284,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1312,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1340,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1375,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="N17" s="12"/>
@@ -1357,7 +1386,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="N18" s="12"/>
@@ -1368,7 +1397,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="N19" s="12"/>
@@ -1379,7 +1408,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1424,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1432,7 +1461,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1496,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1531,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1566,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1601,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="N26" s="12"/>
@@ -1583,7 +1612,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="N27" s="12"/>
@@ -1594,7 +1623,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="N28" s="12"/>
@@ -1605,7 +1634,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1650,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1658,7 +1687,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1722,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1749,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="N32" s="12"/>
+      <c r="N32" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -1728,7 +1759,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1763,7 +1794,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1829,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="N35" s="12"/>
@@ -1809,7 +1840,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="N36" s="12"/>
@@ -1820,7 +1851,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="N37" s="12"/>
@@ -1831,7 +1862,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1878,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1884,7 +1915,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1919,7 +1950,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1985,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2020,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2055,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -2036,4 +2067,658 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.95231225296442601</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.94948306595365395</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.95182709447415303</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.891774891774891</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.95292653061224497</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.89795981795981705</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.95084638445265801</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.95268003423674297</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.76827516927516903</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.96504695054121903</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.89099999999999902</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.97209558823529396</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.96952205882352904</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.97575757575757505</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.92469047619047595</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.93263047938473598</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.93888840974986398</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.76503174603174595</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.95536444762642503</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.96187747035573101</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.97488413547236996</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.99520499108734395</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.94582251082251001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.98468163265306097</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.91426334776334695</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.97460125748669402</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.99547201747201697</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.87022005772005695</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.988444914345605</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.96602941176470503</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.84899999999999898</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.98787878787878702</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.94776190476190403</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.98478805469556197</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.99132937736498095</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.92016666666666602</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.98945610516934002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.96399209486166004</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.97971479500891201</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.98804812834224598</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.95320346320346305</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.98568979591836703</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.91653441003441005</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.97999271475386296</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.988384873327947</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.89823248973248904</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.98942260208267696</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.89833333333333298</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.98455882352941104</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.99404411764705802</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.99636363636363601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.95157142857142796</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.97679893360853098</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.98354471964224199</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.89897619047619004</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.98287751464221995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.96147950089126499</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.98202317290552499</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.93922077922077896</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.97986938775510202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.96149213737712003</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.982186049834057</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.86199461649461595</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.98498624933743395</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.95841911764705801</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.98856617647058798</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.99030303030303002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.96727097768932102</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.97723262813897405</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.87739285714285697</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.97998865227909304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.97005347593582802</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.975704099821746</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.94441558441558404</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.97642857142857098</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.97054706687748704</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.97546834293111195</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.88232733932733898</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.982503380537468</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.97621323529411697</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.97110294117647</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.99030303030303002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.96643441938178698</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.98116842965256201</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.86886904761904704</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.97525923913791501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
     <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
     <sheet name="Undersampling" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -492,14 +493,14 @@
       <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -531,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -547,7 +548,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -563,7 +564,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -579,7 +580,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -595,19 +596,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -640,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,7 +657,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,7 +673,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -688,7 +689,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,19 +705,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +726,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -749,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +766,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +782,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,7 +798,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,19 +814,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +835,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -858,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -874,7 +875,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -890,7 +891,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,7 +907,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,19 +923,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +944,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -967,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -983,7 +984,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1000,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1016,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1041,21 +1042,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1093,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1122,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1150,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1178,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1205,19 +1206,19 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1256,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1285,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1313,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1341,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1376,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="N17" s="12"/>
@@ -1386,7 +1387,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="N18" s="12"/>
@@ -1397,7 +1398,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="N19" s="12"/>
@@ -1408,7 +1409,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1461,7 +1462,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1532,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1567,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="N26" s="12"/>
@@ -1612,7 +1613,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="N27" s="12"/>
@@ -1623,7 +1624,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="N28" s="12"/>
@@ -1634,7 +1635,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1687,7 +1688,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +1723,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1760,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1795,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1830,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="N35" s="12"/>
@@ -1840,7 +1841,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="N36" s="12"/>
@@ -1851,7 +1852,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="N37" s="12"/>
@@ -1862,7 +1863,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1879,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1915,7 +1916,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1950,7 +1951,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +1986,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2020,7 +2021,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -2073,17 +2074,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -2115,7 +2116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>0.95292653061224497</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>0.96504695054121903</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>0.97575757575757505</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2195,27 +2196,27 @@
         <v>0.95536444762642503</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2228,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -2245,7 +2246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>0.98468163265306097</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>0.988444914345605</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>0.98787878787878702</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2325,28 +2326,28 @@
         <v>0.98945610516934002</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2359,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
         <v>6</v>
@@ -2376,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>0.98568979591836703</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>0.98942260208267696</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>0.99636363636363601</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2456,28 +2457,28 @@
         <v>0.98287751464221995</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -2507,7 +2508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>0.97986938775510202</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>0.98498624933743395</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>0.99030303030303002</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2587,28 +2588,28 @@
         <v>0.97998865227909304</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
         <v>6</v>
@@ -2638,7 +2639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>0.97642857142857098</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>0.982503380537468</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>0.99030303030303002</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2721,4 +2722,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
     <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Undersampling" sheetId="3" r:id="rId3"/>
-    <sheet name="Arkusz1" sheetId="4" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId3"/>
+    <sheet name="Undersampling" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>oversamp</t>
+  </si>
+  <si>
+    <t>undersample</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1063,6 +1069,12 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -2072,10 +2084,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2722,16 +2746,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sum.xlsx
+++ b/sum.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Proba 1" sheetId="1" r:id="rId1"/>
     <sheet name="Proba 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz1" sheetId="4" r:id="rId3"/>
-    <sheet name="Undersampling" sheetId="3" r:id="rId4"/>
+    <sheet name="Fini" sheetId="5" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId4"/>
+    <sheet name="Undersampling" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -91,13 +92,19 @@
     <t>TL</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>oversamp</t>
   </si>
   <si>
     <t>undersample</t>
+  </si>
+  <si>
+    <t>Oversampling</t>
+  </si>
+  <si>
+    <t>Undersampling</t>
+  </si>
+  <si>
+    <t>2 proba</t>
   </si>
 </sst>
 </file>
@@ -170,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -189,6 +196,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -499,14 +509,14 @@
       <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -538,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,7 +564,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,7 +580,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +596,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -602,19 +612,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +633,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -647,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +673,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,7 +689,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +705,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,19 +721,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +742,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -756,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,7 +782,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +798,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +814,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,19 +830,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +851,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -865,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -881,7 +891,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,7 +907,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,7 +923,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,19 +939,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +960,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -974,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1000,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1016,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1032,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1048,21 +1058,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1106,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1144,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1172,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1200,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1218,19 +1228,19 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1269,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1307,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1335,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1363,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1398,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="N17" s="12"/>
@@ -1399,7 +1409,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="N18" s="12"/>
@@ -1410,7 +1420,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="N19" s="12"/>
@@ -1421,7 +1431,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1447,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1474,7 +1484,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1509,7 +1519,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1554,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1589,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1624,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="N26" s="12"/>
@@ -1625,7 +1635,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="N27" s="12"/>
@@ -1636,7 +1646,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="N28" s="12"/>
@@ -1647,7 +1657,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1673,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1700,7 +1710,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1745,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1782,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1817,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1852,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="N35" s="12"/>
@@ -1853,7 +1863,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="N36" s="12"/>
@@ -1864,7 +1874,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="N37" s="12"/>
@@ -1875,7 +1885,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1901,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1928,7 +1938,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +1973,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +2008,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2043,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2078,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
@@ -2084,39 +2094,943 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.95231225296442601</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.94257142857142795</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.92411764705882304</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.94948306595365395</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.95182709447415303</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.891774891774891</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.95292653061224497</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.89795981795981705</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.94361523226887001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.92714605701682495</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.92601774418696103</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.95084638445265801</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.95268003423674297</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.76827516927516903</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.96504695054121903</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.89099999999999902</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.95633986928104497</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.96235294117646997</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.94562091503267898</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.97209558823529396</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.96952205882352904</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.97575757575757505</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.92469047619047595</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.93416261353025998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.89822802438359695</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.91039842308534202</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.93263047938473598</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.93888840974986398</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.76503174603174595</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.95536444762642503</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.96187747035573101</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.97096638655462097</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.98914285714285699</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.97488413547236996</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.99520499108734395</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.94582251082251001</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.98468163265306097</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.91426334776334695</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.97072782429709603</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.98049247729394795</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.98918991040314497</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.97460125748669402</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.99547201747201697</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.87022005772005695</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.988444914345605</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.96950980392156805</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.99352941176470599</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.99199346405228706</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.96602941176470503</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.84899999999999898</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.98787878787878702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.94776190476190403</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.97359924320605395</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.96861197110423103</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.98691950464396205</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.98478805469556197</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.99132937736498095</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.92016666666666602</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.98945610516934002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.96399209486166004</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.98330252100840299</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.98588235294117599</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.99057142857142799</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.97971479500891201</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.98804812834224598</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.95320346320346305</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.98568979591836703</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.91653441003441005</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.98354906331686498</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.98630880230880202</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.99060167510902797</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.97999271475386296</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.988384873327947</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.89823248973248904</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.98942260208267696</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.89833333333333298</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.99081699346405205</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.995294117647058</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.99362745098039196</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.98455882352941104</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.99404411764705802</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.99636363636363601</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.95157142857142796</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.97725460096319205</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.97821637426900498</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.988030615755074</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.97679893360853098</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.98354471964224199</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.89897619047619004</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.98287751464221995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.97557983193277298</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.98823529411764699</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.96147950089126499</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.98202317290552499</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.93922077922077896</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.97986938775510202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.97521671792544595</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.98815004031915799</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.99003417091652302</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.96149213737712003</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.982186049834057</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.86199461649461595</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.98498624933743395</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.97241830065359403</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.98647058823529399</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.99084967320261397</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.95841911764705801</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.98856617647058798</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.99030303030303002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.97946577227382103</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.99058135534915703</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.98969728242174004</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.96727097768932102</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.97723262813897405</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.87739285714285697</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.97998865227909304</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.96462450592885296</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.97557983193277298</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.97941176470588198</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.97314285714285698</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.97005347593582802</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.975704099821746</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.94441558441558404</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.97642857142857098</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.92010878010877994</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.97521671792544595</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.97996518443577196</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.97361098269428603</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.97054706687748704</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.97546834293111195</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.88232733932733898</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.982503380537468</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.90533333333333299</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.97241830065359403</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.99058823529411699</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.98790849673202596</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.97621323529411697</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.97110294117647</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.99030303030303002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.94973809523809505</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.97946577227382103</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.97055882352941103</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.96121180401985296</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.96643441938178698</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.98116842965256201</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.86886904761904704</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.97525923913791501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J44"/>
+  <dimension ref="B3:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -2133,14 +3047,20 @@
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2159,8 +3079,20 @@
       <c r="G5" s="6">
         <v>0.95292653061224497</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0.93791666666666662</v>
+      </c>
+      <c r="J5">
+        <v>0.94648674242424236</v>
+      </c>
+      <c r="K5">
+        <v>0.90523809523809551</v>
+      </c>
+      <c r="L5">
+        <v>0.95462448979591841</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2179,8 +3111,20 @@
       <c r="G6" s="6">
         <v>0.96504695054121903</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0.94008479155534763</v>
+      </c>
+      <c r="J6">
+        <v>0.94819562637922516</v>
+      </c>
+      <c r="K6">
+        <v>0.78987123987123997</v>
+      </c>
+      <c r="L6">
+        <v>0.966815758001625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2199,8 +3143,20 @@
       <c r="G7" s="6">
         <v>0.97575757575757505</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0.96375</v>
+      </c>
+      <c r="J7">
+        <v>0.9666544117647059</v>
+      </c>
+      <c r="K7">
+        <v>0.81399999999999972</v>
+      </c>
+      <c r="L7">
+        <v>0.97939393939393937</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2219,28 +3175,40 @@
       <c r="G8" s="6">
         <v>0.95536444762642503</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0.92087885390323465</v>
+      </c>
+      <c r="J8">
+        <v>0.93366008771929832</v>
+      </c>
+      <c r="K8">
+        <v>0.79886904761904742</v>
+      </c>
+      <c r="L8">
+        <v>0.95550168544032754</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +3220,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -2269,8 +3237,20 @@
       <c r="G13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2289,8 +3269,20 @@
       <c r="G14" s="6">
         <v>0.98468163265306097</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0.97758522727272723</v>
+      </c>
+      <c r="J14">
+        <v>0.9956912878787878</v>
+      </c>
+      <c r="K14">
+        <v>0.95285714285714296</v>
+      </c>
+      <c r="L14">
+        <v>0.98655102040816345</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +3301,20 @@
       <c r="G15" s="6">
         <v>0.988444914345605</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>0.97788088761831649</v>
+      </c>
+      <c r="J15">
+        <v>0.99574942704354474</v>
+      </c>
+      <c r="K15">
+        <v>0.87411183261183256</v>
+      </c>
+      <c r="L15">
+        <v>0.98999027225939173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2329,8 +3333,20 @@
       <c r="G16" s="6">
         <v>0.98787878787878702</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>0.98161764705882359</v>
+      </c>
+      <c r="J16">
+        <v>0.99816176470588236</v>
+      </c>
+      <c r="K16">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.99016934046345828</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2349,29 +3365,41 @@
       <c r="G17" s="6">
         <v>0.98945610516934002</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>0.97533281733746136</v>
+      </c>
+      <c r="J17">
+        <v>0.99359477124183004</v>
+      </c>
+      <c r="K17">
+        <v>0.94280952380952376</v>
+      </c>
+      <c r="L17">
+        <v>0.9901341664476152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C20" s="4"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +3411,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
         <v>6</v>
@@ -2400,8 +3428,20 @@
       <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2420,8 +3460,20 @@
       <c r="G23" s="6">
         <v>0.98568979591836703</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>0.98246212121212129</v>
+      </c>
+      <c r="J23">
+        <v>0.98925189393939394</v>
+      </c>
+      <c r="K23">
+        <v>0.9514285714285714</v>
+      </c>
+      <c r="L23">
+        <v>0.98873469387755109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +3492,20 @@
       <c r="G24" s="6">
         <v>0.98942260208267696</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0.98253890187382464</v>
+      </c>
+      <c r="J24">
+        <v>0.98939439940198948</v>
+      </c>
+      <c r="K24">
+        <v>0.88200505050505063</v>
+      </c>
+      <c r="L24">
+        <v>0.99174566003527331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2460,8 +3524,20 @@
       <c r="G25" s="6">
         <v>0.99636363636363601</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>0.98525735294117656</v>
+      </c>
+      <c r="J25">
+        <v>0.99382352941176466</v>
+      </c>
+      <c r="K25">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.99703208556149747</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2480,29 +3556,41 @@
       <c r="G26" s="6">
         <v>0.98287751464221995</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0.9810008169934642</v>
+      </c>
+      <c r="J26">
+        <v>0.98567595459236335</v>
+      </c>
+      <c r="K26">
+        <v>0.92745238095238092</v>
+      </c>
+      <c r="L26">
+        <v>0.98672867328749669</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="4"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="4"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +3602,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -2531,8 +3619,20 @@
       <c r="G31" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2551,8 +3651,20 @@
       <c r="G32" s="6">
         <v>0.97986938775510202</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>0.96868371212121218</v>
+      </c>
+      <c r="J32">
+        <v>0.98030303030303034</v>
+      </c>
+      <c r="K32">
+        <v>0.92142857142857126</v>
+      </c>
+      <c r="L32">
+        <v>0.98251428571428578</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2571,8 +3683,20 @@
       <c r="G33" s="6">
         <v>0.98498624933743395</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>0.96851057441380817</v>
+      </c>
+      <c r="J33">
+        <v>0.98058250778317191</v>
+      </c>
+      <c r="K33">
+        <v>0.81269624819624797</v>
+      </c>
+      <c r="L33">
+        <v>0.98710829270890643</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +3715,20 @@
       <c r="G34" s="6">
         <v>0.99030303030303002</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>0.96569852941176459</v>
+      </c>
+      <c r="J34">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="K34">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="L34">
+        <v>0.99106060606060598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2611,29 +3747,41 @@
       <c r="G35" s="6">
         <v>0.97998865227909304</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>0.97306290849673205</v>
+      </c>
+      <c r="J35">
+        <v>0.97414215686274508</v>
+      </c>
+      <c r="K35">
+        <v>0.86145238095238086</v>
+      </c>
+      <c r="L35">
+        <v>0.9836040480939674</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C36" s="4"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C37" s="4"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C38" s="4"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +3793,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
         <v>6</v>
@@ -2662,8 +3810,20 @@
       <c r="G40" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2682,8 +3842,20 @@
       <c r="G41" s="6">
         <v>0.97642857142857098</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>0.95969696969696972</v>
+      </c>
+      <c r="J41">
+        <v>0.9717329545454545</v>
+      </c>
+      <c r="K41">
+        <v>0.92761904761904779</v>
+      </c>
+      <c r="L41">
+        <v>0.97647755102040823</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +3874,20 @@
       <c r="G42" s="6">
         <v>0.982503380537468</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0.96009399393644945</v>
+      </c>
+      <c r="J42">
+        <v>0.97172502471174194</v>
+      </c>
+      <c r="K42">
+        <v>0.84545365745365741</v>
+      </c>
+      <c r="L42">
+        <v>0.98277812019725219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2722,8 +3906,20 @@
       <c r="G43" s="6">
         <v>0.99030303030303002</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>0.96981617647058826</v>
+      </c>
+      <c r="J43">
+        <v>0.97231617647058821</v>
+      </c>
+      <c r="K43">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.99045454545454537</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2741,6 +3937,18 @@
       </c>
       <c r="G44" s="6">
         <v>0.97525923913791501</v>
+      </c>
+      <c r="I44">
+        <v>0.95294602550871899</v>
+      </c>
+      <c r="J44">
+        <v>0.97263119195046444</v>
+      </c>
+      <c r="K44">
+        <v>0.83517857142857144</v>
+      </c>
+      <c r="L44">
+        <v>0.97569298923284986</v>
       </c>
     </row>
   </sheetData>
